--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H2">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I2">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J2">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.945699666666667</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N2">
-        <v>11.837099</v>
+        <v>0.651809</v>
       </c>
       <c r="O2">
-        <v>0.5217739053606055</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P2">
-        <v>0.534749722327306</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q2">
-        <v>68.67239323334533</v>
+        <v>4.912516121431556</v>
       </c>
       <c r="R2">
-        <v>618.051539100108</v>
+        <v>44.212645092884</v>
       </c>
       <c r="S2">
-        <v>0.01916560159600116</v>
+        <v>0.001306324032111143</v>
       </c>
       <c r="T2">
-        <v>0.02095143601920315</v>
+        <v>0.001455552548650756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H3">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I3">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J3">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.179436</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N3">
-        <v>0.538308</v>
+        <v>11.837099</v>
       </c>
       <c r="O3">
-        <v>0.02372837022372263</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P3">
-        <v>0.02431846295503378</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q3">
-        <v>3.122969458704</v>
+        <v>89.21315856099154</v>
       </c>
       <c r="R3">
-        <v>28.106725128336</v>
+        <v>802.9184270489239</v>
       </c>
       <c r="S3">
-        <v>0.0008715815136749462</v>
+        <v>0.02372334057090157</v>
       </c>
       <c r="T3">
-        <v>0.0009527947363306848</v>
+        <v>0.02643338710892503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H4">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I4">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J4">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5504869999999999</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N4">
-        <v>1.100974</v>
+        <v>7.969592</v>
       </c>
       <c r="O4">
-        <v>0.0727956449059631</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P4">
-        <v>0.04973731661698388</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q4">
-        <v>9.580876125268</v>
+        <v>60.06475697824356</v>
       </c>
       <c r="R4">
-        <v>57.485256751608</v>
+        <v>540.582812804192</v>
       </c>
       <c r="S4">
-        <v>0.002673902074936914</v>
+        <v>0.015972270336434</v>
       </c>
       <c r="T4">
-        <v>0.001948702660998795</v>
+        <v>0.01779686986111986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H5">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I5">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J5">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.886464333333334</v>
+        <v>0.2448785</v>
       </c>
       <c r="N5">
-        <v>8.659393000000001</v>
+        <v>0.489757</v>
       </c>
       <c r="O5">
-        <v>0.3817020795097085</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P5">
-        <v>0.3911944981006764</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q5">
-        <v>50.23707593035068</v>
+        <v>5.536758064288667</v>
       </c>
       <c r="R5">
-        <v>452.1336833731561</v>
+        <v>33.220548385732</v>
       </c>
       <c r="S5">
-        <v>0.01402053630718145</v>
+        <v>0.001472320892304319</v>
       </c>
       <c r="T5">
-        <v>0.01532695793155364</v>
+        <v>0.001093674756822241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.3379163333333</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H6">
-        <v>535.013749</v>
+        <v>67.830676</v>
       </c>
       <c r="I6">
-        <v>0.3763792138794219</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J6">
-        <v>0.4014659877938717</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.945699666666667</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N6">
-        <v>11.837099</v>
+        <v>0.525143</v>
       </c>
       <c r="O6">
-        <v>0.5217739053606055</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P6">
-        <v>0.534749722327306</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q6">
-        <v>703.6678570304612</v>
+        <v>3.957867187407556</v>
       </c>
       <c r="R6">
-        <v>6333.01071327415</v>
+        <v>35.620804686668</v>
       </c>
       <c r="S6">
-        <v>0.1963848523224206</v>
+        <v>0.001052466169069378</v>
       </c>
       <c r="T6">
-        <v>0.2146838254966305</v>
+        <v>0.001172695117827621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J7">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.179436</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N7">
-        <v>0.538308</v>
+        <v>0.651809</v>
       </c>
       <c r="O7">
-        <v>0.02372837022372263</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P7">
-        <v>0.02431846295503378</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q7">
-        <v>32.000242355188</v>
+        <v>38.74741963577123</v>
       </c>
       <c r="R7">
-        <v>288.002181196692</v>
+        <v>348.726776721941</v>
       </c>
       <c r="S7">
-        <v>0.008930865331444604</v>
+        <v>0.01030361716914895</v>
       </c>
       <c r="T7">
-        <v>0.009763035751871315</v>
+        <v>0.01148065553585439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J8">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5504869999999999</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N8">
-        <v>1.100974</v>
+        <v>11.837099</v>
       </c>
       <c r="O8">
-        <v>0.0727956449059631</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P8">
-        <v>0.04973731661698388</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q8">
-        <v>98.17270454858765</v>
+        <v>703.6678570304614</v>
       </c>
       <c r="R8">
-        <v>589.0362272915258</v>
+        <v>6333.010713274152</v>
       </c>
       <c r="S8">
-        <v>0.02739876760355194</v>
+        <v>0.1871176011520488</v>
       </c>
       <c r="T8">
-        <v>0.01996784094585399</v>
+        <v>0.2084930649359038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J9">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.886464333333334</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N9">
-        <v>8.659393000000001</v>
+        <v>7.969592</v>
       </c>
       <c r="O9">
-        <v>0.3817020795097085</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P9">
-        <v>0.3911944981006764</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q9">
-        <v>514.7660347771508</v>
+        <v>473.7601437689343</v>
       </c>
       <c r="R9">
-        <v>4632.894312994357</v>
+        <v>4263.841293920409</v>
       </c>
       <c r="S9">
-        <v>0.1436647286220047</v>
+        <v>0.125981115575747</v>
       </c>
       <c r="T9">
-        <v>0.1570512855995159</v>
+        <v>0.1403726252833283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.61737833333332</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H10">
-        <v>259.852135</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I10">
-        <v>0.1828045400309692</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J10">
-        <v>0.1949889965502952</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.945699666666667</v>
+        <v>0.2448785</v>
       </c>
       <c r="N10">
-        <v>11.837099</v>
+        <v>0.489757</v>
       </c>
       <c r="O10">
-        <v>0.5217739053606055</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P10">
-        <v>0.534749722327306</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q10">
-        <v>341.7661608173738</v>
+        <v>43.67112144483217</v>
       </c>
       <c r="R10">
-        <v>3075.895447356365</v>
+        <v>262.026728668993</v>
       </c>
       <c r="S10">
-        <v>0.09538263876960795</v>
+        <v>0.01161291567141037</v>
       </c>
       <c r="T10">
-        <v>0.1042703117621504</v>
+        <v>0.008626348229732086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.61737833333332</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H11">
-        <v>259.852135</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I11">
-        <v>0.1828045400309692</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J11">
-        <v>0.1949889965502952</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.179436</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N11">
-        <v>0.538308</v>
+        <v>0.525143</v>
       </c>
       <c r="O11">
-        <v>0.02372837022372263</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P11">
-        <v>0.02431846295503378</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q11">
-        <v>15.54227589862</v>
+        <v>31.21763613234523</v>
       </c>
       <c r="R11">
-        <v>139.88048308758</v>
+        <v>280.9587251911071</v>
       </c>
       <c r="S11">
-        <v>0.004337653804432161</v>
+        <v>0.008301315923926158</v>
       </c>
       <c r="T11">
-        <v>0.004741832689247564</v>
+        <v>0.009249620502425074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H12">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I12">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J12">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5504869999999999</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N12">
-        <v>1.100974</v>
+        <v>0.651809</v>
       </c>
       <c r="O12">
-        <v>0.0727956449059631</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P12">
-        <v>0.04973731661698388</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q12">
-        <v>47.68174074658165</v>
+        <v>19.69259038789</v>
       </c>
       <c r="R12">
-        <v>286.09044447949</v>
+        <v>177.23331349101</v>
       </c>
       <c r="S12">
-        <v>0.01330737438329235</v>
+        <v>0.005236604510261662</v>
       </c>
       <c r="T12">
-        <v>0.00969822945825001</v>
+        <v>0.005834810394530738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H13">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I13">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J13">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.886464333333334</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N13">
-        <v>8.659393000000001</v>
+        <v>11.837099</v>
       </c>
       <c r="O13">
-        <v>0.3817020795097085</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P13">
-        <v>0.3911944981006764</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q13">
-        <v>250.0179732060061</v>
+        <v>357.6249207787901</v>
       </c>
       <c r="R13">
-        <v>2250.161758854055</v>
+        <v>3218.624287009111</v>
       </c>
       <c r="S13">
-        <v>0.06977687307363671</v>
+        <v>0.09509872679237906</v>
       </c>
       <c r="T13">
-        <v>0.07627862264064725</v>
+        <v>0.1059623728520002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>90.63663000000001</v>
+      </c>
+      <c r="H14">
+        <v>271.90989</v>
+      </c>
+      <c r="I14">
+        <v>0.174483683330882</v>
+      </c>
+      <c r="J14">
+        <v>0.1922238225092264</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>88.82503149999999</v>
-      </c>
-      <c r="H14">
-        <v>177.650063</v>
-      </c>
-      <c r="I14">
-        <v>0.1874637554152924</v>
-      </c>
-      <c r="J14">
-        <v>0.1333058414989229</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.945699666666667</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N14">
-        <v>11.837099</v>
+        <v>7.969592</v>
       </c>
       <c r="O14">
-        <v>0.5217739053606055</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P14">
-        <v>0.534749722327306</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q14">
-        <v>350.4768971812061</v>
+        <v>240.77898711832</v>
       </c>
       <c r="R14">
-        <v>2102.861383087237</v>
+        <v>2167.01088406488</v>
       </c>
       <c r="S14">
-        <v>0.09781369577660251</v>
+        <v>0.0640273476005168</v>
       </c>
       <c r="T14">
-        <v>0.0712852617261569</v>
+        <v>0.07134154060740036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>88.82503149999999</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H15">
-        <v>177.650063</v>
+        <v>271.90989</v>
       </c>
       <c r="I15">
-        <v>0.1874637554152924</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J15">
-        <v>0.1333058414989229</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.179436</v>
+        <v>0.2448785</v>
       </c>
       <c r="N15">
-        <v>0.538308</v>
+        <v>0.489757</v>
       </c>
       <c r="O15">
-        <v>0.02372837022372263</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P15">
-        <v>0.02431846295503378</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q15">
-        <v>15.938408352234</v>
+        <v>22.194961999455</v>
       </c>
       <c r="R15">
-        <v>95.630450113404</v>
+        <v>133.16977199673</v>
       </c>
       <c r="S15">
-        <v>0.004448209392023447</v>
+        <v>0.005902028926722906</v>
       </c>
       <c r="T15">
-        <v>0.003241793168181163</v>
+        <v>0.004384166580078199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>88.82503149999999</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H16">
-        <v>177.650063</v>
+        <v>271.90989</v>
       </c>
       <c r="I16">
-        <v>0.1874637554152924</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J16">
-        <v>0.1333058414989229</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5504869999999999</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N16">
-        <v>1.100974</v>
+        <v>0.525143</v>
       </c>
       <c r="O16">
-        <v>0.0727956449059631</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P16">
-        <v>0.04973731661698388</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q16">
-        <v>48.89702511534049</v>
+        <v>15.86573059603</v>
       </c>
       <c r="R16">
-        <v>195.588100461362</v>
+        <v>142.79157536427</v>
       </c>
       <c r="S16">
-        <v>0.01364654497194995</v>
+        <v>0.004218975501001582</v>
       </c>
       <c r="T16">
-        <v>0.0066302748455254</v>
+        <v>0.004700932075216905</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H17">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I17">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J17">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.886464333333334</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N17">
-        <v>8.659393000000001</v>
+        <v>0.651809</v>
       </c>
       <c r="O17">
-        <v>0.3817020795097085</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P17">
-        <v>0.3911944981006764</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q17">
-        <v>256.3902853319599</v>
+        <v>31.24777473564133</v>
       </c>
       <c r="R17">
-        <v>1538.341711991759</v>
+        <v>187.486648413848</v>
       </c>
       <c r="S17">
-        <v>0.07155530527471651</v>
+        <v>0.008309330306130056</v>
       </c>
       <c r="T17">
-        <v>0.05214851175905948</v>
+        <v>0.006172366940802807</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>102.6404036666667</v>
+        <v>143.820236</v>
       </c>
       <c r="H18">
-        <v>307.921211</v>
+        <v>287.640472</v>
       </c>
       <c r="I18">
-        <v>0.2166208691825219</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J18">
-        <v>0.231059282808824</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>11.837099</v>
       </c>
       <c r="O18">
-        <v>0.5217739053606055</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P18">
-        <v>0.534749722327306</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q18">
-        <v>404.9882065340987</v>
+        <v>567.4714572451213</v>
       </c>
       <c r="R18">
-        <v>3644.893858806889</v>
+        <v>3404.828743470728</v>
       </c>
       <c r="S18">
-        <v>0.1130271168959733</v>
+        <v>0.1509005942804744</v>
       </c>
       <c r="T18">
-        <v>0.1235588873231651</v>
+        <v>0.1120925279378008</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>102.6404036666667</v>
+        <v>143.820236</v>
       </c>
       <c r="H19">
-        <v>307.921211</v>
+        <v>287.640472</v>
       </c>
       <c r="I19">
-        <v>0.2166208691825219</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J19">
-        <v>0.231059282808824</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.179436</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N19">
-        <v>0.538308</v>
+        <v>7.969592</v>
       </c>
       <c r="O19">
-        <v>0.02372837022372263</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P19">
-        <v>0.02431846295503378</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q19">
-        <v>18.417383472332</v>
+        <v>382.0628674212373</v>
       </c>
       <c r="R19">
-        <v>165.756451250988</v>
+        <v>2292.377204527424</v>
       </c>
       <c r="S19">
-        <v>0.005140060182147467</v>
+        <v>0.1015972045999543</v>
       </c>
       <c r="T19">
-        <v>0.005619006609403062</v>
+        <v>0.07546880480706239</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>102.6404036666667</v>
+        <v>143.820236</v>
       </c>
       <c r="H20">
-        <v>307.921211</v>
+        <v>287.640472</v>
       </c>
       <c r="I20">
-        <v>0.2166208691825219</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J20">
-        <v>0.231059282808824</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.5504869999999999</v>
+        <v>0.2448785</v>
       </c>
       <c r="N20">
-        <v>1.100974</v>
+        <v>0.489757</v>
       </c>
       <c r="O20">
-        <v>0.0727956449059631</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P20">
-        <v>0.04973731661698388</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q20">
-        <v>56.50220789325233</v>
+        <v>35.218483661326</v>
       </c>
       <c r="R20">
-        <v>339.0132473595139</v>
+        <v>140.873934645304</v>
       </c>
       <c r="S20">
-        <v>0.01576905587223195</v>
+        <v>0.009365211318206723</v>
       </c>
       <c r="T20">
-        <v>0.0114922687063557</v>
+        <v>0.004637800208077459</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>102.6404036666667</v>
+        <v>143.820236</v>
       </c>
       <c r="H21">
-        <v>307.921211</v>
+        <v>287.640472</v>
       </c>
       <c r="I21">
-        <v>0.2166208691825219</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J21">
-        <v>0.231059282808824</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.886464333333334</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N21">
-        <v>8.659393000000001</v>
+        <v>0.525143</v>
       </c>
       <c r="O21">
-        <v>0.3817020795097085</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P21">
-        <v>0.3911944981006764</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q21">
-        <v>296.2678643427693</v>
+        <v>25.17539673124934</v>
       </c>
       <c r="R21">
-        <v>2666.410779084923</v>
+        <v>151.052380387496</v>
       </c>
       <c r="S21">
-        <v>0.08268463623216915</v>
+        <v>0.006694578695525922</v>
       </c>
       <c r="T21">
-        <v>0.09038912016990015</v>
+        <v>0.004972891280105075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>84.051186</v>
+      </c>
+      <c r="H22">
+        <v>252.153558</v>
+      </c>
+      <c r="I22">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J22">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.651809</v>
+      </c>
+      <c r="O22">
+        <v>0.03001200118140119</v>
+      </c>
+      <c r="P22">
+        <v>0.03035425223765216</v>
+      </c>
+      <c r="Q22">
+        <v>18.261773165158</v>
+      </c>
+      <c r="R22">
+        <v>164.355958486422</v>
+      </c>
+      <c r="S22">
+        <v>0.004856125163749378</v>
+      </c>
+      <c r="T22">
+        <v>0.005410866817813464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>84.051186</v>
+      </c>
+      <c r="H23">
+        <v>252.153558</v>
+      </c>
+      <c r="I23">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J23">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.945699666666667</v>
+      </c>
+      <c r="N23">
+        <v>11.837099</v>
+      </c>
+      <c r="O23">
+        <v>0.545029340147747</v>
+      </c>
+      <c r="P23">
+        <v>0.5512447493177606</v>
+      </c>
+      <c r="Q23">
+        <v>331.640736583138</v>
+      </c>
+      <c r="R23">
+        <v>2984.766629248242</v>
+      </c>
+      <c r="S23">
+        <v>0.08818907735194298</v>
+      </c>
+      <c r="T23">
+        <v>0.09826339648313072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>84.051186</v>
+      </c>
+      <c r="H24">
+        <v>252.153558</v>
+      </c>
+      <c r="I24">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J24">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>2.656530666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.969592</v>
+      </c>
+      <c r="O24">
+        <v>0.3669532094820499</v>
+      </c>
+      <c r="P24">
+        <v>0.3711378729032198</v>
+      </c>
+      <c r="Q24">
+        <v>223.284553178704</v>
+      </c>
+      <c r="R24">
+        <v>2009.560978608336</v>
+      </c>
+      <c r="S24">
+        <v>0.05937527136939769</v>
+      </c>
+      <c r="T24">
+        <v>0.06615803234430892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>84.051186</v>
+      </c>
+      <c r="H25">
+        <v>252.153558</v>
+      </c>
+      <c r="I25">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J25">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.2448785</v>
+      </c>
+      <c r="N25">
+        <v>0.489757</v>
+      </c>
+      <c r="O25">
+        <v>0.03382567821846469</v>
+      </c>
+      <c r="P25">
+        <v>0.02280761313997783</v>
+      </c>
+      <c r="Q25">
+        <v>20.582328350901</v>
+      </c>
+      <c r="R25">
+        <v>123.493970105406</v>
+      </c>
+      <c r="S25">
+        <v>0.005473201409820371</v>
+      </c>
+      <c r="T25">
+        <v>0.004065623365267845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>84.051186</v>
+      </c>
+      <c r="H26">
+        <v>252.153558</v>
+      </c>
+      <c r="I26">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J26">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1750476666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.525143</v>
+      </c>
+      <c r="O26">
+        <v>0.02417977097033727</v>
+      </c>
+      <c r="P26">
+        <v>0.02445551240138963</v>
+      </c>
+      <c r="Q26">
+        <v>14.712963989866</v>
+      </c>
+      <c r="R26">
+        <v>132.416675908794</v>
+      </c>
+      <c r="S26">
+        <v>0.003912434680814226</v>
+      </c>
+      <c r="T26">
+        <v>0.00435937342581495</v>
       </c>
     </row>
   </sheetData>
